--- a/03_Figures/data/Original_Database.xlsx
+++ b/03_Figures/data/Original_Database.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Climate-Induced-Hybrids" sheetId="1" r:id="rId1"/>
     <sheet name="Main_Reports" sheetId="8" r:id="rId2"/>
+    <sheet name="Categories_Merged" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Climate-Induced-Hybrids'!$A$1:$O$28</definedName>
@@ -544,7 +545,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="249">
   <si>
     <t>Sp1</t>
   </si>
@@ -1649,11 +1650,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3414,4 +3415,417 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="106.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2">
+        <v>2008</v>
+      </c>
+      <c r="D2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3">
+        <v>2018</v>
+      </c>
+      <c r="D3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4">
+        <v>2020</v>
+      </c>
+      <c r="D4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>2018</v>
+      </c>
+      <c r="D5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6">
+        <v>2021</v>
+      </c>
+      <c r="D6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7">
+        <v>2018</v>
+      </c>
+      <c r="D7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8">
+        <v>2002</v>
+      </c>
+      <c r="D8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9">
+        <v>2015</v>
+      </c>
+      <c r="D9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10">
+        <v>2011</v>
+      </c>
+      <c r="D10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>2012</v>
+      </c>
+      <c r="D11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12">
+        <v>2020</v>
+      </c>
+      <c r="D12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13">
+        <v>2011</v>
+      </c>
+      <c r="D13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14">
+        <v>2008</v>
+      </c>
+      <c r="D14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15">
+        <v>2014</v>
+      </c>
+      <c r="D15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>2009</v>
+      </c>
+      <c r="D16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17">
+        <v>2020</v>
+      </c>
+      <c r="D17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>2017</v>
+      </c>
+      <c r="D18" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>2010</v>
+      </c>
+      <c r="D19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20">
+        <v>2018</v>
+      </c>
+      <c r="D20" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <v>2014</v>
+      </c>
+      <c r="D21" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22">
+        <v>2014</v>
+      </c>
+      <c r="D22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23">
+        <v>2018</v>
+      </c>
+      <c r="D23" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24">
+        <v>2008</v>
+      </c>
+      <c r="D24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>244</v>
+      </c>
+      <c r="B25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25">
+        <v>2013</v>
+      </c>
+      <c r="D25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>2018</v>
+      </c>
+      <c r="D26" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27">
+        <v>2017</v>
+      </c>
+      <c r="D27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28">
+        <v>2009</v>
+      </c>
+      <c r="D28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>